--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2987.097765024485</v>
+        <v>-3120.363490603849</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25694028.27108955</v>
+        <v>25841374.97493688</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10945934.67429403</v>
+        <v>11090349.17873481</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4283550.996830199</v>
+        <v>4175387.395400568</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>375.9790740437533</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>412.3130487435869</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,7 +740,7 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C3" t="n">
-        <v>105.3918965517242</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
         <v>94.13938596491228</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>146.4116174021954</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -829,7 +831,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>259.5818941537373</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>407.2606697395771</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>214.815943333665</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>95.3787036735017</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1069,10 +1071,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>146.1497286896993</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1145,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>176.8354923153393</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1199,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>215.2285648127963</v>
       </c>
     </row>
     <row r="9">
@@ -1227,7 +1229,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>42.55211102153797</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1373,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>406.553567514357</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>20.47698540256242</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>176.0830244262218</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1594,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>202.774355702116</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1661,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>140.8731498706705</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>216.0459978501837</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1841,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>383.3590907834184</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>406.1409460352257</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1904,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>25.30817366908154</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2059,7 +2061,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>360.0050306278782</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>402.4784570217578</v>
       </c>
     </row>
     <row r="21">
@@ -2239,19 +2241,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>25.30817366908154</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2296,7 +2298,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>394.1068671065578</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>45.91568880648644</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D26" t="n">
-        <v>335.1231157856347</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2570,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>320.4517931110355</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>172.0647531850085</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>144.1480758989743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2792,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>302.8993458114998</v>
       </c>
       <c r="X29" t="n">
-        <v>374.4268935289279</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2950,7 +2952,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>134.8048189716467</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2968,7 +2970,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>5.64492333244486</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3029,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>343.5281291089314</v>
       </c>
       <c r="D32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,16 +3082,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>156.5603386732361</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>106.0626366504663</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>148.3766424751937</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3278,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -3317,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>343.5281291089314</v>
+        <v>271.1466538576401</v>
       </c>
     </row>
     <row r="36">
@@ -3424,16 +3426,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>159.1000412385906</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3475,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>205.480978252459</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3515,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3556,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>303.3119672906312</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>336.7452714995405</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3664,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>188.1185460120548</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>38.4694373181549</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3740,16 +3742,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>68.95479404111659</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>36.82812005568739</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3800,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3898,25 +3900,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>136.765369836341</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3958,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>197.7129499811109</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>76.67683354921402</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F44" t="n">
-        <v>181.0765084323517</v>
+        <v>373.3071698245765</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4037,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4107,22 +4109,22 @@
         <v>62.82088317610075</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y45" t="n">
-        <v>18.69994113782448</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="46">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>159.4921886272153</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>181.0765084323517</v>
+        <v>209.5867542297959</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1270.883859595509</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C2" t="n">
-        <v>842.3021853327778</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D2" t="n">
-        <v>842.3021853327778</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
-        <v>413.7205110700461</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
         <v>33.94366860160834</v>
@@ -4337,13 +4339,13 @@
         <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4358,22 +4360,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W2" t="n">
-        <v>1697.183430080417</v>
+        <v>450.4214956153326</v>
       </c>
       <c r="X2" t="n">
-        <v>1697.183430080417</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="Y2" t="n">
-        <v>1697.183430080417</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="3">
@@ -4404,31 +4406,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P3" t="n">
-        <v>1580.010651986078</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>859.7685167902448</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C4" t="n">
-        <v>711.8779941617646</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D4" t="n">
-        <v>546.0000013632873</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E4" t="n">
-        <v>376.2419976140245</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
         <v>33.94366860160834</v>
@@ -4486,25 +4488,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>269.215608100497</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>269.215608100497</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4516,22 +4518,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1418.750429333523</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V4" t="n">
-        <v>1131.794921203953</v>
+        <v>910.6670494233545</v>
       </c>
       <c r="W4" t="n">
-        <v>859.7685167902448</v>
+        <v>910.6670494233545</v>
       </c>
       <c r="X4" t="n">
-        <v>859.7685167902448</v>
+        <v>910.6670494233545</v>
       </c>
       <c r="Y4" t="n">
-        <v>859.7685167902448</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>461.8110981924006</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="C5" t="n">
-        <v>461.8110981924006</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="D5" t="n">
-        <v>461.8110981924006</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4595,22 +4597,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>1480.197628733281</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1220.975326050298</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>858.3583759841243</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>453.5029213951576</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="Y5" t="n">
-        <v>873.1855120707613</v>
+        <v>34.36045797446834</v>
       </c>
     </row>
     <row r="6">
@@ -4623,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4632,10 +4634,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4647,19 +4649,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M6" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N6" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>870.9042498209665</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="C7" t="n">
-        <v>870.9042498209665</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K7" t="n">
-        <v>343.6046302520008</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L7" t="n">
-        <v>761.8145120199619</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M7" t="n">
-        <v>761.8145120199619</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q7" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T7" t="n">
-        <v>1429.886162364244</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U7" t="n">
-        <v>1429.886162364244</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V7" t="n">
-        <v>1142.930654234675</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="W7" t="n">
-        <v>870.9042498209665</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="X7" t="n">
-        <v>870.9042498209665</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="Y7" t="n">
-        <v>870.9042498209665</v>
+        <v>1076.258324397527</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C8" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D8" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E8" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G8" t="n">
         <v>33.94366860160834</v>
@@ -4808,16 +4810,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P8" t="n">
         <v>1107.976466382457</v>
@@ -4838,16 +4840,16 @@
         <v>1437.961127397434</v>
       </c>
       <c r="V8" t="n">
-        <v>1259.339417988001</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W8" t="n">
-        <v>854.4839633990338</v>
+        <v>670.4887227422939</v>
       </c>
       <c r="X8" t="n">
-        <v>435.3414999783445</v>
+        <v>251.3462593216046</v>
       </c>
       <c r="Y8" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4874,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4887,16 +4889,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>419.5106457631153</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C10" t="n">
-        <v>419.5106457631153</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D10" t="n">
-        <v>253.632652964638</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E10" t="n">
-        <v>253.632652964638</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F10" t="n">
-        <v>76.92559892639417</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G10" t="n">
         <v>33.94366860160834</v>
@@ -4993,19 +4995,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U10" t="n">
-        <v>1451.303983658873</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V10" t="n">
-        <v>1164.348475529303</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W10" t="n">
-        <v>892.3220711155946</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X10" t="n">
-        <v>646.930316449007</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y10" t="n">
-        <v>419.5106457631153</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>750.9412527491843</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="C11" t="n">
-        <v>750.9412527491843</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="D11" t="n">
-        <v>750.9412527491843</v>
+        <v>444.6038378080297</v>
       </c>
       <c r="E11" t="n">
-        <v>750.9412527491843</v>
+        <v>444.6038378080297</v>
       </c>
       <c r="F11" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G11" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H11" t="n">
         <v>33.94366860160834</v>
@@ -5045,16 +5047,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="L11" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M11" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N11" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O11" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P11" t="n">
         <v>1107.976466382457</v>
@@ -5066,25 +5068,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S11" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T11" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U11" t="n">
-        <v>1134.24202645431</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V11" t="n">
-        <v>771.6250763881362</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W11" t="n">
-        <v>750.9412527491843</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X11" t="n">
-        <v>750.9412527491843</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="Y11" t="n">
-        <v>750.9412527491843</v>
+        <v>873.1855120707613</v>
       </c>
     </row>
     <row r="12">
@@ -5097,7 +5099,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C12" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D12" t="n">
         <v>338.5686635760967</v>
@@ -5106,10 +5108,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F12" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G12" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H12" t="n">
         <v>33.94366860160834</v>
@@ -5121,22 +5123,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K12" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L12" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M12" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N12" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O12" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P12" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q12" t="n">
         <v>1580.010651986078</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>469.0686756144395</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C13" t="n">
-        <v>469.0686756144395</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D13" t="n">
-        <v>469.0686756144395</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E13" t="n">
-        <v>299.3106718651768</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F13" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G13" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H13" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I13" t="n">
         <v>33.94366860160834</v>
@@ -5203,19 +5205,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L13" t="n">
-        <v>33.94366860160834</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M13" t="n">
-        <v>341.7616130750586</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N13" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O13" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P13" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q13" t="n">
         <v>1697.183430080417</v>
@@ -5230,19 +5232,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U13" t="n">
-        <v>1451.303983658873</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V13" t="n">
-        <v>1164.348475529303</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W13" t="n">
-        <v>892.3220711155946</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X13" t="n">
-        <v>646.930316449007</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y13" t="n">
-        <v>646.930316449007</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>929.7110254252771</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="C14" t="n">
-        <v>929.7110254252771</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="D14" t="n">
-        <v>929.7110254252771</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="E14" t="n">
-        <v>929.7110254252771</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F14" t="n">
-        <v>724.8884439079882</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G14" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H14" t="n">
         <v>34.36045797446834</v>
@@ -5279,16 +5281,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K14" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="L14" t="n">
         <v>874.0494664914149</v>
       </c>
-      <c r="L14" t="n">
-        <v>1107.976466382457</v>
-      </c>
       <c r="M14" t="n">
-        <v>1107.976466382457</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N14" t="n">
-        <v>1107.976466382457</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O14" t="n">
         <v>1107.976466382457</v>
@@ -5309,19 +5311,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V14" t="n">
-        <v>1334.566480014244</v>
+        <v>1295.665016416959</v>
       </c>
       <c r="W14" t="n">
-        <v>929.7110254252771</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="X14" t="n">
-        <v>929.7110254252771</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="Y14" t="n">
-        <v>929.7110254252771</v>
+        <v>890.8095618279922</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5354,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I15" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J15" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K15" t="n">
-        <v>804.6185656731816</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L15" t="n">
-        <v>804.6185656731816</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M15" t="n">
-        <v>804.6185656731816</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N15" t="n">
-        <v>804.6185656731816</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O15" t="n">
-        <v>804.6185656731816</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P15" t="n">
-        <v>1159.957753041174</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q15" t="n">
-        <v>1580.010651986078</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R15" t="n">
         <v>1697.183430080417</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>552.97043790589</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C16" t="n">
-        <v>380.4087263891149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D16" t="n">
-        <v>380.4087263891149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E16" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F16" t="n">
         <v>33.94366860160834</v>
@@ -5434,52 +5436,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K16" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L16" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M16" t="n">
-        <v>1181.483761245743</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N16" t="n">
-        <v>1181.483761245743</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O16" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P16" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q16" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R16" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S16" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T16" t="n">
-        <v>1270.644793662241</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U16" t="n">
-        <v>1052.41651300549</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V16" t="n">
-        <v>1052.41651300549</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W16" t="n">
-        <v>780.3901085917817</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X16" t="n">
-        <v>780.3901085917817</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y16" t="n">
-        <v>552.97043790589</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>890.8095618279922</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="C17" t="n">
-        <v>462.2278875652606</v>
+        <v>444.6038378080297</v>
       </c>
       <c r="D17" t="n">
-        <v>462.2278875652606</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E17" t="n">
-        <v>462.2278875652606</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F17" t="n">
         <v>34.36045797446834</v>
@@ -5516,16 +5518,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K17" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L17" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M17" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N17" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O17" t="n">
         <v>687.9235674375537</v>
@@ -5552,13 +5554,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W17" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X17" t="n">
-        <v>1278.040966659728</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="Y17" t="n">
-        <v>1278.040966659728</v>
+        <v>873.1855120707613</v>
       </c>
     </row>
     <row r="18">
@@ -5571,7 +5573,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C18" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D18" t="n">
         <v>338.5686635760967</v>
@@ -5580,10 +5582,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F18" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G18" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H18" t="n">
         <v>33.94366860160834</v>
@@ -5595,7 +5597,7 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K18" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L18" t="n">
         <v>1159.957753041174</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.94366860160834</v>
+        <v>236.2145344268032</v>
       </c>
       <c r="C19" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D19" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E19" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F19" t="n">
         <v>33.94366860160834</v>
@@ -5677,19 +5679,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L19" t="n">
-        <v>341.3779633559367</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M19" t="n">
-        <v>761.43086230084</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N19" t="n">
-        <v>1181.483761245743</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O19" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P19" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q19" t="n">
         <v>1697.183430080417</v>
@@ -5707,16 +5709,16 @@
         <v>1172.870982911978</v>
       </c>
       <c r="V19" t="n">
-        <v>885.9154747824084</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="W19" t="n">
-        <v>613.8890703687</v>
+        <v>900.8445784982696</v>
       </c>
       <c r="X19" t="n">
-        <v>368.4973157021125</v>
+        <v>655.4528238316821</v>
       </c>
       <c r="Y19" t="n">
-        <v>141.0776450162207</v>
+        <v>428.0331531457903</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2003.72477542213</v>
+        <v>864.3399636139361</v>
       </c>
       <c r="C20" t="n">
-        <v>1640.083330343465</v>
+        <v>864.3399636139361</v>
       </c>
       <c r="D20" t="n">
-        <v>1204.173545517909</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="E20" t="n">
-        <v>770.3988006762045</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="F20" t="n">
-        <v>342.5313710854123</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G20" t="n">
-        <v>342.5313710854123</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862856</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J20" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K20" t="n">
-        <v>1149.495958523325</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L20" t="n">
-        <v>1293.567921177998</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M20" t="n">
-        <v>1293.567921177998</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N20" t="n">
-        <v>1293.567921177998</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O20" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P20" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q20" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>2586.408952615265</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T20" t="n">
-        <v>2366.341725488303</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U20" t="n">
-        <v>2366.341725488303</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V20" t="n">
-        <v>2003.72477542213</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W20" t="n">
-        <v>2003.72477542213</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X20" t="n">
-        <v>2003.72477542213</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y20" t="n">
-        <v>2003.72477542213</v>
+        <v>1290.639534098844</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C21" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D21" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E21" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F21" t="n">
-        <v>180.5219584462322</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G21" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I21" t="n">
-        <v>79.46488968908616</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J21" t="n">
-        <v>404.0232146552985</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K21" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q21" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R21" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S21" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T21" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U21" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V21" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W21" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X21" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y21" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>903.8972536055599</v>
+        <v>236.2145344268032</v>
       </c>
       <c r="C22" t="n">
-        <v>731.3355420887848</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D22" t="n">
-        <v>565.4575492903075</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E22" t="n">
-        <v>395.6995455410447</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F22" t="n">
-        <v>218.9924915028009</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>139.9809016933184</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K22" t="n">
-        <v>414.739356264454</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L22" t="n">
-        <v>832.9492380324151</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M22" t="n">
-        <v>1292.433105213328</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N22" t="n">
-        <v>1734.691908370973</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O22" t="n">
-        <v>2154.361157596754</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P22" t="n">
-        <v>2501.868051567096</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S22" t="n">
-        <v>2651.821657388744</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T22" t="n">
-        <v>2405.942210967199</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U22" t="n">
-        <v>2127.509210220304</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V22" t="n">
-        <v>1840.553702090735</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="W22" t="n">
-        <v>1568.527297677026</v>
+        <v>900.8445784982696</v>
       </c>
       <c r="X22" t="n">
-        <v>1323.135543010439</v>
+        <v>655.4528238316821</v>
       </c>
       <c r="Y22" t="n">
-        <v>1095.715872324547</v>
+        <v>428.0331531457903</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1789.095648603258</v>
+        <v>1288.897306380071</v>
       </c>
       <c r="C23" t="n">
-        <v>1350.953175786681</v>
+        <v>1288.897306380071</v>
       </c>
       <c r="D23" t="n">
-        <v>915.0433909611256</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="E23" t="n">
-        <v>481.2686461194208</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F23" t="n">
-        <v>53.40121652862856</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G23" t="n">
-        <v>53.40121652862856</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H23" t="n">
-        <v>53.40121652862856</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J23" t="n">
-        <v>53.40121652862856</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K23" t="n">
-        <v>714.2412710704069</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L23" t="n">
-        <v>714.2412710704069</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M23" t="n">
-        <v>714.2412710704069</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N23" t="n">
-        <v>714.2412710704069</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O23" t="n">
-        <v>1375.081325612185</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P23" t="n">
-        <v>2035.921380153963</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q23" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T23" t="n">
-        <v>2623.681342788512</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U23" t="n">
-        <v>2623.681342788512</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V23" t="n">
-        <v>2623.681342788512</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W23" t="n">
-        <v>2623.681342788512</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X23" t="n">
-        <v>2623.681342788512</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y23" t="n">
-        <v>2215.395219088166</v>
+        <v>1288.897306380071</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D24" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E24" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>180.5219584462322</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G24" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H24" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I24" t="n">
-        <v>73.33088177303154</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J24" t="n">
-        <v>397.8892067392439</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K24" t="n">
-        <v>1058.729261281022</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L24" t="n">
-        <v>1058.729261281022</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M24" t="n">
-        <v>1058.729261281022</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N24" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O24" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P24" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q24" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R24" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S24" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T24" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U24" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V24" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W24" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X24" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y24" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>922.1364226482442</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C25" t="n">
-        <v>749.5747111314691</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D25" t="n">
-        <v>583.6967183329918</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E25" t="n">
-        <v>413.9387145837291</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F25" t="n">
-        <v>237.2316605454853</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G25" t="n">
-        <v>71.64038557131298</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H25" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I25" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>139.9809016933184</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K25" t="n">
-        <v>414.739356264454</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L25" t="n">
-        <v>832.9492380324151</v>
+        <v>269.215608100497</v>
       </c>
       <c r="M25" t="n">
-        <v>1292.433105213328</v>
+        <v>689.2685070454004</v>
       </c>
       <c r="N25" t="n">
-        <v>1734.691908370973</v>
+        <v>1109.321405990304</v>
       </c>
       <c r="O25" t="n">
-        <v>2154.361157596754</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P25" t="n">
-        <v>2501.868051567096</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q25" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S25" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T25" t="n">
-        <v>2424.181380009883</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U25" t="n">
-        <v>2145.748379262989</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V25" t="n">
-        <v>1858.792871133419</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W25" t="n">
-        <v>1586.766466719711</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X25" t="n">
-        <v>1341.374712053123</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.955041367231</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>372.4518663648757</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C26" t="n">
-        <v>372.4518663648757</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D26" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E26" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F26" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G26" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H26" t="n">
         <v>33.94366860160834</v>
@@ -6224,25 +6226,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J26" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K26" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L26" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M26" t="n">
-        <v>453.9965675465116</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="N26" t="n">
-        <v>453.9965675465116</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="O26" t="n">
-        <v>687.9235674375537</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="P26" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q26" t="n">
         <v>1528.02936532736</v>
@@ -6254,22 +6256,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T26" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U26" t="n">
-        <v>1217.893900270473</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V26" t="n">
-        <v>1217.893900270473</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W26" t="n">
-        <v>1217.893900270473</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="X26" t="n">
-        <v>798.7514368497835</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="Y26" t="n">
-        <v>798.7514368497835</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="27">
@@ -6282,7 +6284,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C27" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D27" t="n">
         <v>338.5686635760967</v>
@@ -6291,40 +6293,40 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F27" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G27" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H27" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I27" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J27" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K27" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L27" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M27" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N27" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O27" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P27" t="n">
-        <v>1198.607791457627</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q27" t="n">
-        <v>1618.66069040253</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R27" t="n">
         <v>1697.183430080417</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>973.0996549038641</v>
+        <v>858.7506050139928</v>
       </c>
       <c r="C28" t="n">
-        <v>800.5379433870891</v>
+        <v>686.1888934972177</v>
       </c>
       <c r="D28" t="n">
-        <v>634.6599505886118</v>
+        <v>520.3109006987404</v>
       </c>
       <c r="E28" t="n">
-        <v>464.9019468393491</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F28" t="n">
-        <v>288.1948928011053</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G28" t="n">
-        <v>122.603617826933</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H28" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I28" t="n">
         <v>33.94366860160834</v>
@@ -6391,10 +6393,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M28" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N28" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O28" t="n">
         <v>1181.483761245743</v>
@@ -6409,25 +6411,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T28" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U28" t="n">
-        <v>1537.942061378414</v>
+        <v>1523.380649085459</v>
       </c>
       <c r="V28" t="n">
-        <v>1537.942061378414</v>
+        <v>1523.380649085459</v>
       </c>
       <c r="W28" t="n">
-        <v>1537.942061378414</v>
+        <v>1523.380649085459</v>
       </c>
       <c r="X28" t="n">
-        <v>1392.337944308743</v>
+        <v>1277.988894418872</v>
       </c>
       <c r="Y28" t="n">
-        <v>1164.918273622851</v>
+        <v>1050.56922373298</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1318.974446717864</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="C29" t="n">
-        <v>890.3927724551322</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="D29" t="n">
-        <v>461.8110981924006</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="E29" t="n">
-        <v>461.8110981924006</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="F29" t="n">
-        <v>33.94366860160834</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G29" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H29" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I29" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J29" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K29" t="n">
         <v>453.9965675465116</v>
@@ -6488,25 +6490,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S29" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T29" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U29" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V29" t="n">
-        <v>1697.183430080417</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="W29" t="n">
-        <v>1697.183430080417</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="X29" t="n">
-        <v>1318.974446717864</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="Y29" t="n">
-        <v>1318.974446717864</v>
+        <v>724.8884439079882</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6539,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I30" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J30" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K30" t="n">
-        <v>804.6185656731816</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L30" t="n">
-        <v>1159.957753041174</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M30" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N30" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O30" t="n">
         <v>1159.957753041174</v>
@@ -6595,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>987.9466522811342</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C31" t="n">
-        <v>851.7801684713901</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D31" t="n">
-        <v>685.9021756729128</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E31" t="n">
-        <v>516.14417192365</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F31" t="n">
-        <v>339.4371178854062</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G31" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H31" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I31" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J31" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K31" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L31" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M31" t="n">
-        <v>857.4612819097326</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N31" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O31" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P31" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q31" t="n">
         <v>1697.183430080417</v>
@@ -6646,25 +6648,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S31" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T31" t="n">
-        <v>1697.183430080417</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="U31" t="n">
-        <v>1697.183430080417</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="V31" t="n">
-        <v>1697.183430080417</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="W31" t="n">
-        <v>1425.157025666709</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="X31" t="n">
-        <v>1179.765271000121</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="Y31" t="n">
-        <v>1179.765271000121</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1318.974446717864</v>
+        <v>670.4887227422939</v>
       </c>
       <c r="C32" t="n">
-        <v>1318.974446717864</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="D32" t="n">
-        <v>890.3927724551322</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="E32" t="n">
-        <v>461.8110981924006</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="F32" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G32" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H32" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I32" t="n">
         <v>33.94366860160834</v>
@@ -6701,19 +6703,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K32" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L32" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M32" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N32" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O32" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P32" t="n">
         <v>1107.976466382457</v>
@@ -6728,22 +6730,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T32" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U32" t="n">
-        <v>1477.116202953456</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V32" t="n">
-        <v>1477.116202953456</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W32" t="n">
-        <v>1318.974446717864</v>
+        <v>670.4887227422939</v>
       </c>
       <c r="X32" t="n">
-        <v>1318.974446717864</v>
+        <v>670.4887227422939</v>
       </c>
       <c r="Y32" t="n">
-        <v>1318.974446717864</v>
+        <v>670.4887227422939</v>
       </c>
     </row>
     <row r="33">
@@ -6774,13 +6776,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I33" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J33" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K33" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L33" t="n">
         <v>1159.957753041174</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>141.0776450162207</v>
+        <v>947.4105542393174</v>
       </c>
       <c r="C34" t="n">
-        <v>141.0776450162207</v>
+        <v>774.8488427225424</v>
       </c>
       <c r="D34" t="n">
-        <v>141.0776450162207</v>
+        <v>608.9708499240651</v>
       </c>
       <c r="E34" t="n">
-        <v>141.0776450162207</v>
+        <v>439.2128461748023</v>
       </c>
       <c r="F34" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G34" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H34" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I34" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J34" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K34" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L34" t="n">
-        <v>437.4083829648294</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M34" t="n">
-        <v>857.4612819097326</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N34" t="n">
-        <v>1277.514180854636</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O34" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P34" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q34" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R34" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S34" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T34" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U34" t="n">
-        <v>1172.870982911978</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V34" t="n">
-        <v>885.9154747824084</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="W34" t="n">
-        <v>613.8890703687</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="X34" t="n">
-        <v>368.4973157021125</v>
+        <v>1366.648843644196</v>
       </c>
       <c r="Y34" t="n">
-        <v>141.0776450162207</v>
+        <v>1139.229172958305</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>323.4906125312521</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="C35" t="n">
-        <v>323.4906125312521</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="D35" t="n">
-        <v>323.4906125312521</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="E35" t="n">
-        <v>323.4906125312521</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="F35" t="n">
-        <v>323.4906125312521</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G35" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H35" t="n">
         <v>34.36045797446834</v>
@@ -6941,16 +6943,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="L35" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M35" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N35" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O35" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P35" t="n">
         <v>1107.976466382457</v>
@@ -6965,22 +6967,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T35" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U35" t="n">
-        <v>1437.961127397434</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V35" t="n">
-        <v>1075.344177331261</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="W35" t="n">
-        <v>670.4887227422939</v>
+        <v>709.6437982983157</v>
       </c>
       <c r="X35" t="n">
-        <v>670.4887227422939</v>
+        <v>709.6437982983157</v>
       </c>
       <c r="Y35" t="n">
-        <v>323.4906125312521</v>
+        <v>435.7582893512044</v>
       </c>
     </row>
     <row r="36">
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>552.97043790589</v>
+        <v>194.6507809638211</v>
       </c>
       <c r="C37" t="n">
-        <v>380.4087263891149</v>
+        <v>194.6507809638211</v>
       </c>
       <c r="D37" t="n">
-        <v>380.4087263891149</v>
+        <v>194.6507809638211</v>
       </c>
       <c r="E37" t="n">
-        <v>210.6507226398521</v>
+        <v>194.6507809638211</v>
       </c>
       <c r="F37" t="n">
         <v>33.94366860160834</v>
@@ -7093,25 +7095,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J37" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K37" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L37" t="n">
-        <v>437.4083829648294</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M37" t="n">
-        <v>857.4612819097326</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N37" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O37" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P37" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q37" t="n">
         <v>1697.183430080417</v>
@@ -7123,22 +7125,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T37" t="n">
-        <v>1697.183430080417</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U37" t="n">
-        <v>1697.183430080417</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V37" t="n">
-        <v>1489.626886391065</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W37" t="n">
-        <v>1217.600481977356</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X37" t="n">
-        <v>972.2087273107688</v>
+        <v>613.8890703687</v>
       </c>
       <c r="Y37" t="n">
-        <v>744.789056624877</v>
+        <v>386.4693996828083</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C38" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D38" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E38" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F38" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G38" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H38" t="n">
         <v>33.94366860160834</v>
@@ -7178,13 +7180,13 @@
         <v>453.9965675465116</v>
       </c>
       <c r="L38" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M38" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N38" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O38" t="n">
         <v>687.9235674375537</v>
@@ -7202,22 +7204,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T38" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U38" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V38" t="n">
-        <v>1030.847379071119</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W38" t="n">
-        <v>724.4716545351282</v>
+        <v>1208.676101675288</v>
       </c>
       <c r="X38" t="n">
-        <v>724.4716545351282</v>
+        <v>868.5293627868627</v>
       </c>
       <c r="Y38" t="n">
-        <v>724.4716545351282</v>
+        <v>460.2432390865162</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7256,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K39" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L39" t="n">
-        <v>1224.671464618085</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M39" t="n">
-        <v>1580.010651986078</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N39" t="n">
-        <v>1580.010651986078</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O39" t="n">
-        <v>1580.010651986078</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P39" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q39" t="n">
         <v>1580.010651986078</v>
@@ -7306,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>383.2124341566272</v>
+        <v>549.0904269551045</v>
       </c>
       <c r="C40" t="n">
-        <v>210.6507226398521</v>
+        <v>376.5287154383295</v>
       </c>
       <c r="D40" t="n">
         <v>210.6507226398521</v>
@@ -7330,52 +7332,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J40" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K40" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L40" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M40" t="n">
-        <v>872.2064493144727</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N40" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O40" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P40" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q40" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R40" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S40" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T40" t="n">
-        <v>1451.303983658873</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U40" t="n">
-        <v>1172.870982911978</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V40" t="n">
-        <v>885.9154747824084</v>
+        <v>1485.746875440279</v>
       </c>
       <c r="W40" t="n">
-        <v>613.8890703687</v>
+        <v>1213.720471026571</v>
       </c>
       <c r="X40" t="n">
-        <v>613.8890703687</v>
+        <v>968.3287163599834</v>
       </c>
       <c r="Y40" t="n">
-        <v>575.0310528756143</v>
+        <v>740.9090456740917</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>104.0117650867073</v>
+        <v>928.0096830963633</v>
       </c>
       <c r="C41" t="n">
-        <v>34.36045797446834</v>
+        <v>499.4280088336317</v>
       </c>
       <c r="D41" t="n">
-        <v>34.36045797446834</v>
+        <v>499.4280088336317</v>
       </c>
       <c r="E41" t="n">
-        <v>34.36045797446834</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F41" t="n">
         <v>34.36045797446834</v>
@@ -7412,16 +7414,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K41" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L41" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M41" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N41" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O41" t="n">
         <v>687.9235674375537</v>
@@ -7448,13 +7450,13 @@
         <v>1354.309253581271</v>
       </c>
       <c r="W41" t="n">
-        <v>949.4537989923044</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="X41" t="n">
-        <v>530.3113355716151</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="Y41" t="n">
-        <v>530.3113355716151</v>
+        <v>1354.309253581271</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7493,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K42" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L42" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M42" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N42" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O42" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P42" t="n">
         <v>1159.957753041174</v>
@@ -7543,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>718.8484307043673</v>
+        <v>400.6526303550848</v>
       </c>
       <c r="C43" t="n">
-        <v>546.2867191875922</v>
+        <v>400.6526303550848</v>
       </c>
       <c r="D43" t="n">
-        <v>380.4087263891149</v>
+        <v>400.6526303550848</v>
       </c>
       <c r="E43" t="n">
-        <v>210.6507226398521</v>
+        <v>400.6526303550848</v>
       </c>
       <c r="F43" t="n">
-        <v>33.94366860160834</v>
+        <v>400.6526303550848</v>
       </c>
       <c r="G43" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H43" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I43" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J43" t="n">
-        <v>120.5233537662982</v>
+        <v>68.4625259617433</v>
       </c>
       <c r="K43" t="n">
-        <v>395.2818083374338</v>
+        <v>343.2209805328789</v>
       </c>
       <c r="L43" t="n">
-        <v>395.2818083374338</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M43" t="n">
-        <v>395.2818083374338</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N43" t="n">
-        <v>761.8145120199619</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O43" t="n">
         <v>1181.483761245743</v>
@@ -7597,22 +7599,22 @@
         <v>1675.765608785789</v>
       </c>
       <c r="T43" t="n">
-        <v>1675.765608785789</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U43" t="n">
-        <v>1397.332608038895</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V43" t="n">
-        <v>1110.377099909325</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W43" t="n">
-        <v>910.6670494233545</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X43" t="n">
-        <v>910.6670494233545</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="Y43" t="n">
-        <v>910.6670494233545</v>
+        <v>592.4712490740719</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>380.2972488207532</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C44" t="n">
-        <v>380.2972488207532</v>
+        <v>1268.601755817686</v>
       </c>
       <c r="D44" t="n">
-        <v>380.2972488207532</v>
+        <v>840.020081554954</v>
       </c>
       <c r="E44" t="n">
-        <v>197.3916847476707</v>
+        <v>411.4384072922223</v>
       </c>
       <c r="F44" t="n">
-        <v>14.48612067458814</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G44" t="n">
-        <v>14.48612067458814</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H44" t="n">
-        <v>14.48612067458814</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I44" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J44" t="n">
-        <v>193.7518640226163</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K44" t="n">
-        <v>193.7518640226163</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L44" t="n">
-        <v>193.7518640226163</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M44" t="n">
-        <v>193.7518640226163</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N44" t="n">
-        <v>193.7518640226163</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O44" t="n">
-        <v>196.6204822802937</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P44" t="n">
-        <v>375.8862256283219</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q44" t="n">
-        <v>555.1519689763501</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R44" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>640.6541599132439</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T44" t="n">
-        <v>640.6541599132439</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U44" t="n">
-        <v>640.6541599132439</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V44" t="n">
-        <v>640.6541599132439</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W44" t="n">
-        <v>457.7485958401613</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X44" t="n">
-        <v>457.7485958401613</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y44" t="n">
-        <v>457.7485958401613</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>520.6578656658809</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>414.2014045025232</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D45" t="n">
-        <v>319.1111156490765</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E45" t="n">
-        <v>224.9907009760302</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>141.6068625921918</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G45" t="n">
-        <v>56.22177285837567</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H45" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I45" t="n">
-        <v>40.54979383504573</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J45" t="n">
-        <v>219.8155371830739</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K45" t="n">
-        <v>219.8155371830739</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L45" t="n">
-        <v>219.8155371830739</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M45" t="n">
-        <v>219.8155371830739</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N45" t="n">
-        <v>219.8155371830739</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O45" t="n">
-        <v>248.6017689390107</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P45" t="n">
-        <v>427.8675122870389</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q45" t="n">
-        <v>607.133255635067</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R45" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S45" t="n">
-        <v>660.85059617779</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T45" t="n">
-        <v>660.85059617779</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U45" t="n">
-        <v>660.85059617779</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V45" t="n">
-        <v>660.85059617779</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W45" t="n">
-        <v>660.85059617779</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X45" t="n">
-        <v>660.85059617779</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y45" t="n">
-        <v>641.961766745644</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>14.48612067458814</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C46" t="n">
-        <v>14.48612067458814</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D46" t="n">
-        <v>14.48612067458814</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E46" t="n">
-        <v>14.48612067458814</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F46" t="n">
-        <v>14.48612067458814</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G46" t="n">
-        <v>14.48612067458814</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H46" t="n">
-        <v>14.48612067458814</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>14.48612067458814</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K46" t="n">
-        <v>14.48612067458814</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L46" t="n">
-        <v>193.7518640226163</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M46" t="n">
-        <v>373.0176073706446</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N46" t="n">
-        <v>552.2833507186728</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O46" t="n">
-        <v>556.1132588650746</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P46" t="n">
-        <v>556.1132588650746</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q46" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
-        <v>724.3060337294069</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S46" t="n">
-        <v>724.3060337294069</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T46" t="n">
-        <v>724.3060337294069</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U46" t="n">
-        <v>563.2028128938358</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V46" t="n">
-        <v>563.2028128938358</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="W46" t="n">
-        <v>380.2972488207532</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="X46" t="n">
-        <v>197.3916847476707</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="Y46" t="n">
-        <v>14.48612067458814</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7987,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P3" t="n">
+        <v>407.1525905495951</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P3" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,19 +8136,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>150.1941962971706</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8295,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8371,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>225.3346227128309</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8456,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8468,7 +8470,7 @@
         <v>236.2898988798406</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -8535,19 +8537,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8693,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8705,7 +8707,7 @@
         <v>236.2898988798406</v>
       </c>
       <c r="P11" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>424.2958575201044</v>
@@ -8769,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q12" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8851,22 +8853,22 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201043</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8927,19 +8929,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9000,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P15" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>358.9284720888814</v>
-      </c>
       <c r="Q15" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9082,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9164,19 +9166,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P17" t="n">
         <v>424.2958575201044</v>
@@ -9243,10 +9245,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="L18" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L18" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9325,22 +9327,22 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>310.5396916710387</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N19" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9480,10 +9482,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9565,13 +9567,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9650,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>667.5152066078567</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q23" t="n">
-        <v>469.682203560008</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9711,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.13097499434645</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,16 +9728,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9796,22 +9798,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>150.1941962971706</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K26" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9948,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q27" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>79.31589866453214</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10039,13 +10041,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10185,25 +10187,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="M30" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L30" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10267,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N31" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10349,10 +10351,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>424.2958575201044</v>
@@ -10422,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10504,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10589,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,10 +10600,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P35" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>424.2958575201044</v>
@@ -10741,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>407.5401155184051</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N37" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10826,16 +10828,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>424.2958575201044</v>
@@ -10902,25 +10904,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P39" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L39" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M39" t="n">
-        <v>358.9284720888816</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -10978,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N40" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11060,19 +11062,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>424.2958575201044</v>
@@ -11139,10 +11141,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -11215,22 +11217,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>34.86753268700501</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N43" t="n">
-        <v>370.2350542247758</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11309,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>2.89759419967416</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>181.0765084323517</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>29.07700177367349</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11452,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>181.0765084323517</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>3.868594087274687</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -22544,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>47.60968125113101</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -22598,19 +22600,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>2.637990042895467</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -22702,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>24.42447699941192</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22717,7 +22719,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -22756,16 +22758,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>24.50405889453657</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.77590504048163</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -22793,7 +22795,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22802,7 +22804,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22835,13 +22837,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>3.050611522026713</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22939,13 +22941,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>68.84050919699082</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -22957,10 +22959,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -22999,16 +23001,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>96.78810843022231</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23033,7 +23035,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -23078,7 +23080,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>182.1552882501725</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>188.9746976505468</v>
       </c>
     </row>
     <row r="9">
@@ -23176,22 +23178,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>121.3832512028926</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -23233,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23261,19 +23263,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>17.03518778052728</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>380.3299146405146</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.81740810557545</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -23422,10 +23424,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -23434,7 +23436,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23497,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -23504,13 +23506,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>220.8143995927684</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,10 +23551,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>218.1176306948412</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>59.60267288924206</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23729,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38.67748399664032</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>9.465190568306582</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>25.40974094207422</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -23792,7 +23794,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>145.5279207325258</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -23899,7 +23901,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>73.75601746053269</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -24035,7 +24037,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>1.724805441585318</v>
       </c>
     </row>
     <row r="21">
@@ -24127,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>145.5279207325258</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24203,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>37.44381987074206</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24224,7 +24226,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,7 +24259,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>171.9508660492053</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
         <v>256.6300796561533</v>
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D26" t="n">
-        <v>96.42757119166521</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
@@ -24458,7 +24460,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0.4126214791313976</v>
@@ -24494,19 +24496,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>80.35510693204151</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>103.5839175544172</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -24664,7 +24666,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>98.78976122094736</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24680,25 +24682,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>97.90755423157719</v>
       </c>
       <c r="X29" t="n">
-        <v>40.52414525755449</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>36.03127542996063</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>237.7757286248844</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -24898,13 +24900,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24917,25 +24919,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>90.23291897947951</v>
       </c>
       <c r="D32" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,16 +24970,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>244.2465613698409</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.87734684739507</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>94.56119464472795</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25166,10 +25168,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25205,10 +25207,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>60.67513335441168</v>
+        <v>133.056608605703</v>
       </c>
     </row>
     <row r="36">
@@ -25312,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>15.83994225927069</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -25363,19 +25365,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>78.6049747958148</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -25403,10 +25405,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -25442,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>97.49493275244578</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>78.20576728694186</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>95.96740703621907</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.6760366608779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25628,16 +25630,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>364.8062540472943</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>392.6088773376003</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -25688,10 +25690,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>27.16999238808958</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25839,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>71.59319038846044</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -25862,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>345.3597412308446</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E44" t="n">
-        <v>248.360488960936</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F44" t="n">
-        <v>242.5122468625326</v>
+        <v>50.28158547030785</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -25883,7 +25885,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -25925,7 +25927,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>219.7303916107253</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -25995,22 +25997,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>106.5209802907469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>116.1564821122104</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>88.22963193721966</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>61.86132868756994</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>44.06896554668108</v>
+        <v>15.5587197492369</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>361095.1315552104</v>
+        <v>361095.1315552105</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>361095.1315552104</v>
+        <v>361095.1315552105</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>361095.1315552105</v>
+        <v>361095.1315552104</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>507973.5078686058</v>
+        <v>361095.1315552105</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>507973.5078686057</v>
+        <v>361095.1315552105</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>361095.1315552105</v>
+        <v>361095.1315552106</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>361095.1315552105</v>
+        <v>361095.1315552104</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>361095.1315552105</v>
+        <v>361095.1315552104</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>361095.1315552104</v>
+        <v>361095.1315552105</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>361095.1315552105</v>
+        <v>361095.1315552104</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>154104.3695691515</v>
+        <v>361095.1315552104</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>84141.63629345148</v>
       </c>
       <c r="C2" t="n">
-        <v>84141.63629345146</v>
+        <v>84141.63629345148</v>
       </c>
       <c r="D2" t="n">
-        <v>84141.63629345146</v>
+        <v>84141.63629345148</v>
       </c>
       <c r="E2" t="n">
         <v>84141.63629345148</v>
       </c>
       <c r="F2" t="n">
-        <v>84141.63629345146</v>
+        <v>84141.63629345148</v>
       </c>
       <c r="G2" t="n">
         <v>84141.63629345148</v>
       </c>
       <c r="H2" t="n">
-        <v>118366.9299602668</v>
+        <v>84141.63629345148</v>
       </c>
       <c r="I2" t="n">
-        <v>118366.9299602668</v>
+        <v>84141.63629345148</v>
       </c>
       <c r="J2" t="n">
-        <v>84141.63629345146</v>
+        <v>84141.63629345148</v>
       </c>
       <c r="K2" t="n">
-        <v>84141.63629345146</v>
+        <v>84141.63629345148</v>
       </c>
       <c r="L2" t="n">
         <v>84141.63629345149</v>
       </c>
       <c r="M2" t="n">
-        <v>84141.63629345146</v>
+        <v>84141.63629345149</v>
       </c>
       <c r="N2" t="n">
-        <v>84141.63629345146</v>
+        <v>84141.63629345148</v>
       </c>
       <c r="O2" t="n">
         <v>84141.63629345148</v>
       </c>
       <c r="P2" t="n">
-        <v>35909.07958153023</v>
+        <v>84141.63629345148</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>47377.58197227423</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26433,10 +26435,10 @@
         <v>24896.51517712573</v>
       </c>
       <c r="H4" t="n">
-        <v>35023.37484795161</v>
+        <v>24896.51517712573</v>
       </c>
       <c r="I4" t="n">
-        <v>35023.37484795161</v>
+        <v>24896.51517712573</v>
       </c>
       <c r="J4" t="n">
         <v>24896.51517712573</v>
@@ -26451,13 +26453,13 @@
         <v>24896.51517712573</v>
       </c>
       <c r="N4" t="n">
-        <v>24896.51517712573</v>
+        <v>24896.51517712572</v>
       </c>
       <c r="O4" t="n">
         <v>24896.51517712573</v>
       </c>
       <c r="P4" t="n">
-        <v>10625.07201167612</v>
+        <v>24896.51517712573</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26487,10 @@
         <v>25797.18813722234</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.9245617577</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="I5" t="n">
-        <v>40584.9245617577</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="J5" t="n">
         <v>25797.18813722234</v>
@@ -26509,7 +26511,7 @@
         <v>25797.18813722234</v>
       </c>
       <c r="P5" t="n">
-        <v>11009.45171268698</v>
+        <v>25797.18813722234</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-142370.9676806065</v>
       </c>
       <c r="C6" t="n">
-        <v>-179.6670208966098</v>
+        <v>-179.6670208965879</v>
       </c>
       <c r="D6" t="n">
-        <v>-179.6670208966025</v>
+        <v>-179.6670208965952</v>
       </c>
       <c r="E6" t="n">
+        <v>33447.93297910341</v>
+      </c>
+      <c r="F6" t="n">
         <v>33447.9329791034</v>
       </c>
-      <c r="F6" t="n">
-        <v>33447.93297910339</v>
-      </c>
       <c r="G6" t="n">
+        <v>33447.9329791034</v>
+      </c>
+      <c r="H6" t="n">
         <v>33447.93297910341</v>
       </c>
-      <c r="H6" t="n">
-        <v>-22864.13880745995</v>
-      </c>
       <c r="I6" t="n">
-        <v>42758.63055055752</v>
+        <v>33447.9329791034</v>
       </c>
       <c r="J6" t="n">
-        <v>-13929.64899317084</v>
+        <v>-77566.53236588679</v>
       </c>
       <c r="K6" t="n">
-        <v>33447.93297910339</v>
+        <v>33447.9329791034</v>
       </c>
       <c r="L6" t="n">
-        <v>33447.93297910342</v>
+        <v>33447.93297910343</v>
       </c>
       <c r="M6" t="n">
-        <v>33447.93297910339</v>
+        <v>33447.93297910343</v>
       </c>
       <c r="N6" t="n">
-        <v>33447.9329791034</v>
+        <v>33447.93297910341</v>
       </c>
       <c r="O6" t="n">
-        <v>33447.9329791034</v>
+        <v>33447.93297910341</v>
       </c>
       <c r="P6" t="n">
-        <v>14274.55585716713</v>
+        <v>33447.93297910341</v>
       </c>
     </row>
   </sheetData>
@@ -26805,10 +26807,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="H4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="I4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="J4" t="n">
         <v>424.2958575201043</v>
@@ -26829,7 +26831,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P4" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
     </row>
   </sheetData>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34705,16 +34707,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P3" t="n">
+        <v>407.1525905495951</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P3" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,19 +34856,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>150.1941962971706</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
@@ -34875,7 +34877,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,7 +35017,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>225.3346227128309</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35176,7 +35178,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35188,7 +35190,7 @@
         <v>236.2898988798406</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -35255,19 +35257,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35413,7 +35415,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35425,7 +35427,7 @@
         <v>236.2898988798406</v>
       </c>
       <c r="P11" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>424.2958575201044</v>
@@ -35489,7 +35491,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q12" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35571,22 +35573,22 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201043</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,19 +35649,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P15" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>358.9284720888814</v>
-      </c>
       <c r="Q15" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,19 +35886,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P17" t="n">
         <v>424.2958575201044</v>
@@ -35963,10 +35965,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="L18" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L18" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -36045,22 +36047,22 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>310.5396916710387</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N19" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36133,13 +36135,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697544</v>
@@ -36200,10 +36202,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,16 +36287,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36370,13 +36372,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>667.5152066078567</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q23" t="n">
-        <v>469.682203560008</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697544</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.13097499434645</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,16 +36448,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>150.1941962971706</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
-        <v>351.017064616507</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821539</v>
@@ -36592,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K26" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697544</v>
@@ -36668,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36689,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q27" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>79.31589866453214</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,13 +36761,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -36905,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="M30" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L30" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N31" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,10 +37071,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -37081,10 +37083,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>424.2958575201044</v>
@@ -37142,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37311,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37318,10 +37320,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P35" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>424.2958575201044</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>407.5401155184051</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N37" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,16 +37548,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>424.2958575201044</v>
@@ -37622,25 +37624,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P39" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L39" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M39" t="n">
-        <v>358.9284720888816</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N40" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,19 +37782,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>424.2958575201044</v>
@@ -37859,10 +37861,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37874,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>34.86753268700501</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N43" t="n">
-        <v>370.2350542247758</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38029,16 +38031,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>2.89759419967416</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>181.0765084323517</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>29.07700177367349</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094342</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>181.0765084323517</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>3.868594087274687</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3120.363490603849</v>
+        <v>-9355.680989758854</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25841374.97493688</v>
+        <v>25841374.97493689</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4175387.395400568</v>
+        <v>4175387.395400567</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>389.0432893909481</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -724,7 +724,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>412.3130487435869</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -828,10 +828,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>102.4925341304712</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>259.5818941537373</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>386.0309950025953</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>214.815943333665</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1056,7 +1056,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>131.9537376326509</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1068,7 +1068,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>146.1497286896993</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>72.62525989088326</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>215.2285648127963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,7 +1229,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>215.0039784639891</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1353,13 +1353,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.553567514357</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>161.718212501575</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>106.0626366504663</v>
+        <v>170.6306905111304</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1612,13 +1612,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>140.8731498706705</v>
+        <v>155.8532364480161</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>152.355512532834</v>
       </c>
     </row>
     <row r="17">
@@ -1849,22 +1849,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D17" t="n">
-        <v>406.1409460352257</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>73.03788137001466</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>25.30817366908154</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>77.33779636608354</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2061,16 +2061,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D20" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>373.7197913037078</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>402.4784570217578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>25.30817366908154</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>155.0870140897734</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,19 +2323,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>394.1068671065578</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>46.26926615534656</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
         <v>0.4126214791313976</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>16.87089136023326</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
         <v>256.6300796561533</v>
@@ -2617,7 +2617,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>320.4517931110355</v>
+        <v>388.8240912665597</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>135.0044035586296</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>172.0647531850085</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>302.8993458114998</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>102.5852382553438</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2958,19 +2958,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>5.64492333244486</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>165.6088205257965</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>343.5281291089314</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>60.76911877777854</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -3189,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>21.31653034720206</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>148.3766424751937</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>73.33236211610335</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>271.1466538576401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>131.0728407280764</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>159.1000412385906</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>65.97105309998192</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>336.7452714995405</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3669,19 +3669,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>188.1185460120548</v>
+        <v>226.571833748733</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>374.4268935289279</v>
+      </c>
+      <c r="D41" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
       <c r="E41" t="n">
-        <v>36.82812005568739</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>156.6768476459807</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>136.765369836341</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>373.3071698245765</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>46.68188763447793</v>
       </c>
     </row>
     <row r="45">
@@ -4137,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4146,16 +4146,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>209.5867542297959</v>
+        <v>51.96587863536084</v>
       </c>
     </row>
   </sheetData>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1217.893900270473</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>855.2769502042993</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W2" t="n">
-        <v>450.4214956153326</v>
+        <v>846.059151609114</v>
       </c>
       <c r="X2" t="n">
-        <v>33.94366860160834</v>
+        <v>426.9166881884247</v>
       </c>
       <c r="Y2" t="n">
-        <v>33.94366860160834</v>
+        <v>426.9166881884247</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4409,28 +4409,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L3" t="n">
-        <v>453.9965675465116</v>
+        <v>778.554892512724</v>
       </c>
       <c r="M3" t="n">
-        <v>453.9965675465116</v>
+        <v>778.554892512724</v>
       </c>
       <c r="N3" t="n">
-        <v>453.9965675465116</v>
+        <v>778.554892512724</v>
       </c>
       <c r="O3" t="n">
-        <v>874.0494664914149</v>
+        <v>778.554892512724</v>
       </c>
       <c r="P3" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>718.8484307043673</v>
+        <v>473.1074774023496</v>
       </c>
       <c r="C4" t="n">
-        <v>546.2867191875922</v>
+        <v>473.1074774023496</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4087263891149</v>
+        <v>307.2294846038723</v>
       </c>
       <c r="E4" t="n">
-        <v>210.6507226398521</v>
+        <v>137.4714808546095</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.4714808546095</v>
       </c>
       <c r="G4" t="n">
         <v>33.94366860160834</v>
@@ -4497,16 +4497,16 @@
         <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4515,25 +4515,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1259.509060631519</v>
       </c>
       <c r="V4" t="n">
-        <v>910.6670494233545</v>
+        <v>972.5535525019498</v>
       </c>
       <c r="W4" t="n">
-        <v>910.6670494233545</v>
+        <v>700.5271480882413</v>
       </c>
       <c r="X4" t="n">
-        <v>910.6670494233545</v>
+        <v>700.5271480882413</v>
       </c>
       <c r="Y4" t="n">
-        <v>910.6670494233545</v>
+        <v>473.1074774023496</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34.36045797446834</v>
+        <v>851.7413961748201</v>
       </c>
       <c r="C5" t="n">
-        <v>34.36045797446834</v>
+        <v>851.7413961748201</v>
       </c>
       <c r="D5" t="n">
-        <v>34.36045797446834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E5" t="n">
-        <v>34.36045797446834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4597,22 +4597,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T5" t="n">
-        <v>1480.197628733281</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U5" t="n">
-        <v>1220.975326050298</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V5" t="n">
-        <v>858.3583759841243</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W5" t="n">
-        <v>453.5029213951576</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X5" t="n">
-        <v>34.36045797446834</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y5" t="n">
-        <v>34.36045797446834</v>
+        <v>1278.040966659728</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4634,10 +4634,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4661,10 +4661,10 @@
         <v>804.6185656731816</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q6" t="n">
         <v>1580.010651986078</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>884.4397056785397</v>
+        <v>679.5733228569366</v>
       </c>
       <c r="C7" t="n">
-        <v>711.8779941617646</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D7" t="n">
-        <v>546.0000013632873</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E7" t="n">
-        <v>376.2419976140245</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G7" t="n">
         <v>33.94366860160834</v>
@@ -4725,52 +4725,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q7" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U7" t="n">
-        <v>1451.303983658873</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V7" t="n">
-        <v>1451.303983658873</v>
+        <v>1388.81010065622</v>
       </c>
       <c r="W7" t="n">
-        <v>1451.303983658873</v>
+        <v>1116.783696242511</v>
       </c>
       <c r="X7" t="n">
-        <v>1303.677995083419</v>
+        <v>871.3919415759237</v>
       </c>
       <c r="Y7" t="n">
-        <v>1076.258324397527</v>
+        <v>871.3919415759237</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.94366860160834</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="C8" t="n">
-        <v>33.94366860160834</v>
+        <v>964.8826548745612</v>
       </c>
       <c r="D8" t="n">
-        <v>33.94366860160834</v>
+        <v>536.3009806118296</v>
       </c>
       <c r="E8" t="n">
-        <v>33.94366860160834</v>
+        <v>107.7193063490979</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>107.7193063490979</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
@@ -4807,16 +4807,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O8" t="n">
         <v>1107.976466382457</v>
@@ -4831,25 +4831,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U8" t="n">
-        <v>1437.961127397434</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V8" t="n">
-        <v>1075.344177331261</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W8" t="n">
-        <v>670.4887227422939</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="X8" t="n">
-        <v>251.3462593216046</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="Y8" t="n">
-        <v>33.94366860160834</v>
+        <v>1393.464329137293</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4889,16 +4889,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>542.1413766661235</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>369.5796651493484</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E10" t="n">
         <v>33.94366860160834</v>
@@ -4968,13 +4968,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>813.4916901053949</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M10" t="n">
-        <v>1181.483761245743</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N10" t="n">
-        <v>1181.483761245743</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O10" t="n">
         <v>1181.483761245743</v>
@@ -4986,28 +4986,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T10" t="n">
-        <v>1451.303983658873</v>
+        <v>1299.348504261575</v>
       </c>
       <c r="U10" t="n">
-        <v>1172.870982911978</v>
+        <v>1020.91550351468</v>
       </c>
       <c r="V10" t="n">
-        <v>885.9154747824084</v>
+        <v>733.9599953851107</v>
       </c>
       <c r="W10" t="n">
-        <v>613.8890703687</v>
+        <v>733.9599953851107</v>
       </c>
       <c r="X10" t="n">
-        <v>368.4973157021125</v>
+        <v>733.9599953851107</v>
       </c>
       <c r="Y10" t="n">
-        <v>141.0776450162207</v>
+        <v>733.9599953851107</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>873.1855120707613</v>
+        <v>752.0722867939837</v>
       </c>
       <c r="C11" t="n">
-        <v>873.1855120707613</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="D11" t="n">
-        <v>444.6038378080297</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="E11" t="n">
-        <v>444.6038378080297</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="F11" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G11" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H11" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I11" t="n">
         <v>33.94366860160834</v>
@@ -5047,16 +5047,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="L11" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M11" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N11" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O11" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P11" t="n">
         <v>1107.976466382457</v>
@@ -5077,16 +5077,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V11" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W11" t="n">
-        <v>1292.327975491451</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="X11" t="n">
-        <v>873.1855120707613</v>
+        <v>915.4240165935545</v>
       </c>
       <c r="Y11" t="n">
-        <v>873.1855120707613</v>
+        <v>752.0722867939837</v>
       </c>
     </row>
     <row r="12">
@@ -5138,7 +5138,7 @@
         <v>804.6185656731816</v>
       </c>
       <c r="P12" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q12" t="n">
         <v>1580.010651986078</v>
@@ -5199,52 +5199,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K13" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L13" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M13" t="n">
-        <v>872.2064493144727</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N13" t="n">
-        <v>1277.514180854636</v>
+        <v>1109.321405990304</v>
       </c>
       <c r="O13" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P13" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q13" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R13" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T13" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U13" t="n">
-        <v>1172.870982911978</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V13" t="n">
-        <v>885.9154747824084</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W13" t="n">
-        <v>613.8890703687</v>
+        <v>679.1093267936133</v>
       </c>
       <c r="X13" t="n">
-        <v>368.4973157021125</v>
+        <v>433.7175721270257</v>
       </c>
       <c r="Y13" t="n">
-        <v>141.0776450162207</v>
+        <v>206.297901441134</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>890.8095618279922</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="C14" t="n">
-        <v>462.2278875652606</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="D14" t="n">
-        <v>462.2278875652606</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E14" t="n">
-        <v>462.2278875652606</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F14" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G14" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H14" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I14" t="n">
         <v>33.94366860160834</v>
@@ -5281,19 +5281,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K14" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L14" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M14" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N14" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O14" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P14" t="n">
         <v>1107.976466382457</v>
@@ -5308,22 +5308,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U14" t="n">
-        <v>1437.961127397434</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V14" t="n">
-        <v>1295.665016416959</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="W14" t="n">
-        <v>890.8095618279922</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="X14" t="n">
-        <v>890.8095618279922</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="Y14" t="n">
-        <v>890.8095618279922</v>
+        <v>1319.688691389803</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I15" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J15" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K15" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L15" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M15" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N15" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O15" t="n">
-        <v>874.0494664914149</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P15" t="n">
-        <v>1294.102365436318</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q15" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R15" t="n">
         <v>1697.183430080417</v>
@@ -5436,52 +5436,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K16" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L16" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M16" t="n">
-        <v>872.2064493144727</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N16" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O16" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P16" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q16" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R16" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S16" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T16" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U16" t="n">
-        <v>1172.870982911978</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V16" t="n">
-        <v>885.9154747824084</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W16" t="n">
-        <v>613.8890703687</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X16" t="n">
-        <v>368.4973157021125</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y16" t="n">
-        <v>141.0776450162207</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>873.1855120707613</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="C17" t="n">
-        <v>444.6038378080297</v>
+        <v>964.8826548745612</v>
       </c>
       <c r="D17" t="n">
-        <v>34.36045797446834</v>
+        <v>536.3009806118296</v>
       </c>
       <c r="E17" t="n">
-        <v>34.36045797446834</v>
+        <v>107.7193063490979</v>
       </c>
       <c r="F17" t="n">
-        <v>34.36045797446834</v>
+        <v>107.7193063490979</v>
       </c>
       <c r="G17" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H17" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I17" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J17" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K17" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L17" t="n">
-        <v>267.8706684926505</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="M17" t="n">
-        <v>267.8706684926505</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="N17" t="n">
-        <v>267.8706684926505</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="O17" t="n">
-        <v>687.9235674375537</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P17" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q17" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R17" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S17" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T17" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U17" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V17" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W17" t="n">
-        <v>1292.327975491451</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="X17" t="n">
-        <v>873.1855120707613</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="Y17" t="n">
-        <v>873.1855120707613</v>
+        <v>1393.464329137293</v>
       </c>
     </row>
     <row r="18">
@@ -5597,7 +5597,7 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K18" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L18" t="n">
         <v>1159.957753041174</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>236.2145344268032</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="C19" t="n">
-        <v>210.6507226398521</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="D19" t="n">
-        <v>210.6507226398521</v>
+        <v>288.7697088682194</v>
       </c>
       <c r="E19" t="n">
-        <v>210.6507226398521</v>
+        <v>288.7697088682194</v>
       </c>
       <c r="F19" t="n">
-        <v>33.94366860160834</v>
+        <v>112.0626548299756</v>
       </c>
       <c r="G19" t="n">
-        <v>33.94366860160834</v>
+        <v>112.0626548299756</v>
       </c>
       <c r="H19" t="n">
-        <v>33.94366860160834</v>
+        <v>112.0626548299756</v>
       </c>
       <c r="I19" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J19" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K19" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L19" t="n">
-        <v>452.1535503695694</v>
+        <v>688.8848573262783</v>
       </c>
       <c r="M19" t="n">
-        <v>872.2064493144727</v>
+        <v>1108.937756271182</v>
       </c>
       <c r="N19" t="n">
-        <v>1292.259348259376</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="O19" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P19" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q19" t="n">
         <v>1697.183430080417</v>
@@ -5700,25 +5700,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S19" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T19" t="n">
-        <v>1451.303983658873</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U19" t="n">
-        <v>1172.870982911978</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V19" t="n">
-        <v>1172.870982911978</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W19" t="n">
-        <v>900.8445784982696</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X19" t="n">
-        <v>655.4528238316821</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="Y19" t="n">
-        <v>428.0331531457903</v>
+        <v>454.6477016666967</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>864.3399636139361</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C20" t="n">
-        <v>864.3399636139361</v>
+        <v>1268.601755817686</v>
       </c>
       <c r="D20" t="n">
-        <v>435.7582893512044</v>
+        <v>840.020081554954</v>
       </c>
       <c r="E20" t="n">
-        <v>435.7582893512044</v>
+        <v>411.4384072922223</v>
       </c>
       <c r="F20" t="n">
-        <v>435.7582893512044</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G20" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H20" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I20" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J20" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K20" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L20" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M20" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N20" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O20" t="n">
         <v>687.9235674375537</v>
@@ -5797,7 +5797,7 @@
         <v>1697.183430080417</v>
       </c>
       <c r="Y20" t="n">
-        <v>1290.639534098844</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="21">
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>236.2145344268032</v>
+        <v>549.0904269551045</v>
       </c>
       <c r="C22" t="n">
-        <v>210.6507226398521</v>
+        <v>376.5287154383295</v>
       </c>
       <c r="D22" t="n">
         <v>210.6507226398521</v>
@@ -5910,52 +5910,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K22" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L22" t="n">
-        <v>813.4916901053949</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M22" t="n">
-        <v>813.4916901053949</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N22" t="n">
-        <v>813.4916901053949</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O22" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P22" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q22" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S22" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T22" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U22" t="n">
-        <v>1172.870982911978</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V22" t="n">
-        <v>1172.870982911978</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W22" t="n">
-        <v>900.8445784982696</v>
+        <v>794.482181621692</v>
       </c>
       <c r="X22" t="n">
-        <v>655.4528238316821</v>
+        <v>549.0904269551045</v>
       </c>
       <c r="Y22" t="n">
-        <v>428.0331531457903</v>
+        <v>549.0904269551045</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1288.897306380071</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="C23" t="n">
-        <v>1288.897306380071</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="D23" t="n">
-        <v>890.8095618279922</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="E23" t="n">
-        <v>462.2278875652606</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="F23" t="n">
-        <v>34.36045797446834</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G23" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H23" t="n">
         <v>34.36045797446834</v>
@@ -5992,16 +5992,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K23" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L23" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M23" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N23" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O23" t="n">
         <v>687.9235674375537</v>
@@ -6016,25 +6016,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S23" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T23" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U23" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V23" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W23" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X23" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="Y23" t="n">
-        <v>1288.897306380071</v>
+        <v>771.6250763881362</v>
       </c>
     </row>
     <row r="24">
@@ -6047,7 +6047,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D24" t="n">
         <v>338.5686635760967</v>
@@ -6056,10 +6056,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G24" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H24" t="n">
         <v>33.94366860160834</v>
@@ -6071,19 +6071,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K24" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L24" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M24" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N24" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O24" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P24" t="n">
         <v>1159.957753041174</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.94366860160834</v>
+        <v>227.6920270441282</v>
       </c>
       <c r="C25" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D25" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E25" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F25" t="n">
         <v>33.94366860160834</v>
@@ -6150,19 +6150,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K25" t="n">
-        <v>120.5233537662982</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L25" t="n">
-        <v>269.215608100497</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M25" t="n">
-        <v>689.2685070454004</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N25" t="n">
-        <v>1109.321405990304</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O25" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P25" t="n">
         <v>1528.990655216085</v>
@@ -6180,19 +6180,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U25" t="n">
-        <v>1172.870982911978</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V25" t="n">
-        <v>885.9154747824084</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="W25" t="n">
-        <v>613.8890703687</v>
+        <v>892.3220711155946</v>
       </c>
       <c r="X25" t="n">
-        <v>368.4973157021125</v>
+        <v>646.930316449007</v>
       </c>
       <c r="Y25" t="n">
-        <v>141.0776450162207</v>
+        <v>419.5106457631153</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>751.6554974211238</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C26" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D26" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E26" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F26" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G26" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H26" t="n">
         <v>33.94366860160834</v>
@@ -6226,25 +6226,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J26" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K26" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="L26" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="M26" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="N26" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O26" t="n">
         <v>687.9235674375537</v>
       </c>
-      <c r="L26" t="n">
+      <c r="P26" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q26" t="n">
         <v>1528.02936532736</v>
@@ -6256,22 +6256,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T26" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U26" t="n">
-        <v>1437.961127397434</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V26" t="n">
-        <v>1075.344177331261</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W26" t="n">
-        <v>751.6554974211238</v>
+        <v>462.52534286434</v>
       </c>
       <c r="X26" t="n">
-        <v>751.6554974211238</v>
+        <v>462.52534286434</v>
       </c>
       <c r="Y26" t="n">
-        <v>751.6554974211238</v>
+        <v>462.52534286434</v>
       </c>
     </row>
     <row r="27">
@@ -6284,7 +6284,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C27" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D27" t="n">
         <v>338.5686635760967</v>
@@ -6293,10 +6293,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F27" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G27" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H27" t="n">
         <v>33.94366860160834</v>
@@ -6311,19 +6311,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L27" t="n">
+        <v>804.6185656731816</v>
+      </c>
+      <c r="M27" t="n">
+        <v>804.6185656731816</v>
+      </c>
+      <c r="N27" t="n">
+        <v>804.6185656731816</v>
+      </c>
+      <c r="O27" t="n">
+        <v>804.6185656731816</v>
+      </c>
+      <c r="P27" t="n">
         <v>1159.957753041174</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1159.957753041174</v>
-      </c>
-      <c r="N27" t="n">
-        <v>1159.957753041174</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1159.957753041174</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1580.010651986078</v>
       </c>
       <c r="Q27" t="n">
         <v>1580.010651986078</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>858.7506050139928</v>
+        <v>505.6610317276996</v>
       </c>
       <c r="C28" t="n">
-        <v>686.1888934972177</v>
+        <v>369.2929473250434</v>
       </c>
       <c r="D28" t="n">
-        <v>520.3109006987404</v>
+        <v>369.2929473250434</v>
       </c>
       <c r="E28" t="n">
-        <v>350.5528969494776</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="F28" t="n">
-        <v>173.8458429112338</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G28" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H28" t="n">
         <v>33.94366860160834</v>
@@ -6390,13 +6390,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L28" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M28" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N28" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O28" t="n">
         <v>1181.483761245743</v>
@@ -6411,25 +6411,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S28" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T28" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U28" t="n">
-        <v>1523.380649085459</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="V28" t="n">
-        <v>1523.380649085459</v>
+        <v>1005.1071068273</v>
       </c>
       <c r="W28" t="n">
-        <v>1523.380649085459</v>
+        <v>733.0807024135913</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.988894418872</v>
+        <v>733.0807024135913</v>
       </c>
       <c r="Y28" t="n">
-        <v>1050.56922373298</v>
+        <v>505.6610317276996</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>724.8884439079882</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C29" t="n">
-        <v>724.8884439079882</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D29" t="n">
-        <v>724.8884439079882</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E29" t="n">
-        <v>724.8884439079882</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F29" t="n">
-        <v>724.8884439079882</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G29" t="n">
-        <v>323.4906125312521</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H29" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I29" t="n">
         <v>33.94366860160834</v>
@@ -6490,25 +6490,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S29" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T29" t="n">
-        <v>1393.464329137293</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U29" t="n">
-        <v>1393.464329137293</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V29" t="n">
-        <v>1030.847379071119</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W29" t="n">
-        <v>724.8884439079882</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="X29" t="n">
-        <v>724.8884439079882</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="Y29" t="n">
-        <v>724.8884439079882</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I30" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J30" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K30" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L30" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M30" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N30" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O30" t="n">
         <v>1159.957753041174</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1113.00182921349</v>
+        <v>537.9746478910331</v>
       </c>
       <c r="C31" t="n">
-        <v>940.4401176967148</v>
+        <v>365.412936374258</v>
       </c>
       <c r="D31" t="n">
-        <v>774.5621248982375</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="E31" t="n">
-        <v>604.8041211489747</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="F31" t="n">
-        <v>428.0970671107308</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G31" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H31" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I31" t="n">
         <v>33.94366860160834</v>
@@ -6627,13 +6627,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L31" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M31" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N31" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O31" t="n">
         <v>1181.483761245743</v>
@@ -6645,28 +6645,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R31" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S31" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T31" t="n">
-        <v>1532.240118618369</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U31" t="n">
-        <v>1532.240118618369</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V31" t="n">
-        <v>1532.240118618369</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W31" t="n">
-        <v>1532.240118618369</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="X31" t="n">
-        <v>1532.240118618369</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="Y31" t="n">
-        <v>1304.820447932477</v>
+        <v>537.9746478910331</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>670.4887227422939</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C32" t="n">
-        <v>323.4906125312521</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D32" t="n">
-        <v>323.4906125312521</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E32" t="n">
-        <v>323.4906125312521</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F32" t="n">
-        <v>323.4906125312521</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G32" t="n">
-        <v>323.4906125312521</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H32" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I32" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J32" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K32" t="n">
-        <v>874.0494664914149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L32" t="n">
-        <v>1107.976466382457</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M32" t="n">
-        <v>1107.976466382457</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N32" t="n">
-        <v>1107.976466382457</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O32" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P32" t="n">
         <v>1107.976466382457</v>
@@ -6730,22 +6730,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T32" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U32" t="n">
-        <v>1437.961127397434</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V32" t="n">
-        <v>1075.344177331261</v>
+        <v>1156.51095201009</v>
       </c>
       <c r="W32" t="n">
-        <v>670.4887227422939</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="X32" t="n">
-        <v>670.4887227422939</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="Y32" t="n">
-        <v>670.4887227422939</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="33">
@@ -6758,7 +6758,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C33" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D33" t="n">
         <v>338.5686635760967</v>
@@ -6767,10 +6767,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F33" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G33" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H33" t="n">
         <v>33.94366860160834</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>947.4105542393174</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="C34" t="n">
-        <v>774.8488427225424</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D34" t="n">
-        <v>608.9708499240651</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E34" t="n">
-        <v>439.2128461748023</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F34" t="n">
-        <v>262.5057921365585</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G34" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H34" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I34" t="n">
         <v>33.94366860160834</v>
@@ -6864,13 +6864,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L34" t="n">
-        <v>395.2818083374338</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M34" t="n">
-        <v>815.3347072823371</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N34" t="n">
-        <v>815.3347072823371</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O34" t="n">
         <v>1181.483761245743</v>
@@ -6882,28 +6882,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R34" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S34" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T34" t="n">
-        <v>1516.524240083786</v>
+        <v>1516.410212542856</v>
       </c>
       <c r="U34" t="n">
-        <v>1516.524240083786</v>
+        <v>1516.410212542856</v>
       </c>
       <c r="V34" t="n">
-        <v>1516.524240083786</v>
+        <v>1516.410212542856</v>
       </c>
       <c r="W34" t="n">
-        <v>1516.524240083786</v>
+        <v>1516.410212542856</v>
       </c>
       <c r="X34" t="n">
-        <v>1366.648843644196</v>
+        <v>1271.018457876269</v>
       </c>
       <c r="Y34" t="n">
-        <v>1139.229172958305</v>
+        <v>1043.598787190377</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>435.7582893512044</v>
+        <v>1319.391236090724</v>
       </c>
       <c r="C35" t="n">
-        <v>435.7582893512044</v>
+        <v>1319.391236090724</v>
       </c>
       <c r="D35" t="n">
-        <v>435.7582893512044</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="E35" t="n">
-        <v>435.7582893512044</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F35" t="n">
-        <v>435.7582893512044</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G35" t="n">
         <v>34.36045797446834</v>
@@ -6940,16 +6940,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K35" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L35" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M35" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N35" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O35" t="n">
         <v>1107.976466382457</v>
@@ -6964,25 +6964,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S35" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T35" t="n">
-        <v>1477.116202953456</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U35" t="n">
-        <v>1477.116202953456</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V35" t="n">
-        <v>1114.499252887282</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W35" t="n">
-        <v>709.6437982983157</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="X35" t="n">
-        <v>709.6437982983157</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="Y35" t="n">
-        <v>435.7582893512044</v>
+        <v>1393.464329137293</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>194.6507809638211</v>
+        <v>984.1769772876289</v>
       </c>
       <c r="C37" t="n">
-        <v>194.6507809638211</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D37" t="n">
-        <v>194.6507809638211</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E37" t="n">
-        <v>194.6507809638211</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F37" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G37" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H37" t="n">
         <v>33.94366860160834</v>
@@ -7101,13 +7101,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L37" t="n">
-        <v>761.43086230084</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M37" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N37" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O37" t="n">
         <v>1181.483761245743</v>
@@ -7119,28 +7119,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R37" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S37" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T37" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U37" t="n">
-        <v>1172.870982911978</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V37" t="n">
-        <v>885.9154747824084</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W37" t="n">
-        <v>613.8890703687</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="X37" t="n">
-        <v>613.8890703687</v>
+        <v>984.1769772876289</v>
       </c>
       <c r="Y37" t="n">
-        <v>386.4693996828083</v>
+        <v>984.1769772876289</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>33.94366860160834</v>
+        <v>100.5810959753275</v>
       </c>
       <c r="C38" t="n">
-        <v>33.94366860160834</v>
+        <v>100.5810959753275</v>
       </c>
       <c r="D38" t="n">
-        <v>33.94366860160834</v>
+        <v>100.5810959753275</v>
       </c>
       <c r="E38" t="n">
-        <v>33.94366860160834</v>
+        <v>100.5810959753275</v>
       </c>
       <c r="F38" t="n">
-        <v>33.94366860160834</v>
+        <v>100.5810959753275</v>
       </c>
       <c r="G38" t="n">
         <v>33.94366860160834</v>
@@ -7186,10 +7186,10 @@
         <v>453.9965675465116</v>
       </c>
       <c r="N38" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O38" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P38" t="n">
         <v>1107.976466382457</v>
@@ -7207,19 +7207,19 @@
         <v>1613.531556264254</v>
       </c>
       <c r="U38" t="n">
-        <v>1613.531556264254</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V38" t="n">
-        <v>1613.531556264254</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="W38" t="n">
-        <v>1208.676101675288</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="X38" t="n">
-        <v>868.5293627868627</v>
+        <v>935.1667901605819</v>
       </c>
       <c r="Y38" t="n">
-        <v>460.2432390865162</v>
+        <v>526.8806664602353</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K39" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L39" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M39" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N39" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O39" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P39" t="n">
         <v>1159.957753041174</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>549.0904269551045</v>
+        <v>796.3926008656205</v>
       </c>
       <c r="C40" t="n">
-        <v>376.5287154383295</v>
+        <v>623.8308893488454</v>
       </c>
       <c r="D40" t="n">
-        <v>210.6507226398521</v>
+        <v>457.9528965503681</v>
       </c>
       <c r="E40" t="n">
-        <v>210.6507226398521</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="F40" t="n">
-        <v>33.94366860160834</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="G40" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H40" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I40" t="n">
         <v>33.94366860160834</v>
@@ -7341,10 +7341,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M40" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N40" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O40" t="n">
         <v>1181.483761245743</v>
@@ -7359,25 +7359,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S40" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T40" t="n">
-        <v>1675.765608785789</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U40" t="n">
-        <v>1675.765608785789</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V40" t="n">
-        <v>1485.746875440279</v>
+        <v>1041.784355532208</v>
       </c>
       <c r="W40" t="n">
-        <v>1213.720471026571</v>
+        <v>1041.784355532208</v>
       </c>
       <c r="X40" t="n">
-        <v>968.3287163599834</v>
+        <v>796.3926008656205</v>
       </c>
       <c r="Y40" t="n">
-        <v>740.9090456740917</v>
+        <v>796.3926008656205</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>928.0096830963633</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C41" t="n">
-        <v>499.4280088336317</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D41" t="n">
-        <v>499.4280088336317</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E41" t="n">
-        <v>462.2278875652606</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F41" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G41" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H41" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I41" t="n">
         <v>33.94366860160834</v>
@@ -7420,10 +7420,10 @@
         <v>453.9965675465116</v>
       </c>
       <c r="M41" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N41" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O41" t="n">
         <v>687.9235674375537</v>
@@ -7438,25 +7438,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S41" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T41" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U41" t="n">
-        <v>1354.309253581271</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V41" t="n">
-        <v>1354.309253581271</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W41" t="n">
-        <v>1354.309253581271</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X41" t="n">
-        <v>1354.309253581271</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y41" t="n">
-        <v>1354.309253581271</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>400.6526303550848</v>
+        <v>586.356509177378</v>
       </c>
       <c r="C43" t="n">
-        <v>400.6526303550848</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="D43" t="n">
-        <v>400.6526303550848</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="E43" t="n">
-        <v>400.6526303550848</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="F43" t="n">
-        <v>400.6526303550848</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G43" t="n">
         <v>262.5057921365585</v>
@@ -7569,10 +7569,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J43" t="n">
-        <v>68.4625259617433</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K43" t="n">
-        <v>343.2209805328789</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L43" t="n">
         <v>761.43086230084</v>
@@ -7593,28 +7593,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R43" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S43" t="n">
-        <v>1675.765608785789</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T43" t="n">
-        <v>1429.886162364244</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U43" t="n">
-        <v>1151.45316161735</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V43" t="n">
-        <v>864.4976534877803</v>
+        <v>1250.986553248845</v>
       </c>
       <c r="W43" t="n">
-        <v>592.4712490740719</v>
+        <v>1250.986553248845</v>
       </c>
       <c r="X43" t="n">
-        <v>592.4712490740719</v>
+        <v>1005.594798582257</v>
       </c>
       <c r="Y43" t="n">
-        <v>592.4712490740719</v>
+        <v>778.1751278963652</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1697.183430080417</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="C44" t="n">
-        <v>1268.601755817686</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="D44" t="n">
-        <v>840.020081554954</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E44" t="n">
-        <v>411.4384072922223</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F44" t="n">
-        <v>34.36045797446834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G44" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H44" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I44" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J44" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K44" t="n">
         <v>453.9965675465116</v>
@@ -7675,25 +7675,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T44" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U44" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V44" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W44" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X44" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="Y44" t="n">
-        <v>1697.183430080417</v>
+        <v>724.4716545351282</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I45" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J45" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K45" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L45" t="n">
         <v>1159.957753041174</v>
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1113.00182921349</v>
+        <v>369.5796651493484</v>
       </c>
       <c r="C46" t="n">
-        <v>940.4401176967148</v>
+        <v>369.5796651493484</v>
       </c>
       <c r="D46" t="n">
-        <v>774.5621248982375</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E46" t="n">
-        <v>604.8041211489747</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F46" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G46" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H46" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I46" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K46" t="n">
-        <v>395.2818083374338</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L46" t="n">
-        <v>813.4916901053949</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M46" t="n">
-        <v>813.4916901053949</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N46" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O46" t="n">
         <v>1181.483761245743</v>
@@ -7830,28 +7830,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S46" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T46" t="n">
-        <v>1516.524240083786</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U46" t="n">
-        <v>1516.524240083786</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V46" t="n">
-        <v>1516.524240083786</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W46" t="n">
-        <v>1516.524240083786</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X46" t="n">
-        <v>1516.524240083786</v>
+        <v>613.8890703687</v>
       </c>
       <c r="Y46" t="n">
-        <v>1304.820447932477</v>
+        <v>561.3982838683355</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>407.1525905495951</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8145,19 +8145,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,10 +8455,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8537,7 +8537,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8616,16 +8616,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>236.2898988798406</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q11" t="n">
         <v>424.2958575201044</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q12" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8847,19 +8847,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>409.401749030468</v>
+        <v>298.8178948332412</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8929,10 +8929,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q15" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L17" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>424.2958575201043</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P17" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="M19" t="n">
         <v>424.2958575201044</v>
@@ -9336,13 +9336,13 @@
         <v>424.2958575201044</v>
       </c>
       <c r="O19" t="n">
-        <v>409.0142240616578</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,11 +9400,11 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K20" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>424.2958575201044</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O22" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,19 +9640,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>424.2958575201044</v>
@@ -9719,22 +9719,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -9798,22 +9798,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="K26" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L26" t="n">
+      <c r="P26" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M26" t="n">
+      <c r="Q26" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9959,22 +9959,22 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>358.9284720888814</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
+      <c r="Q27" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10038,16 +10038,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M28" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -10187,25 +10187,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M30" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10275,16 +10275,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M31" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O32" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K32" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L32" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q32" t="n">
         <v>424.2958575201044</v>
@@ -10512,16 +10512,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>369.8475292559658</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10588,7 +10588,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L35" t="n">
         <v>236.2898988798406</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10749,16 +10749,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>369.8475292559658</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10834,13 +10834,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O38" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P38" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>424.2958575201044</v>
@@ -10904,10 +10904,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>424.2958575201044</v>
@@ -10989,13 +10989,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>371.7091627680287</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11068,13 +11068,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>424.2958575201044</v>
@@ -11217,13 +11217,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>34.86753268700501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M43" t="n">
         <v>424.2958575201044</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11454,22 +11454,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>33.39342414375216</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O46" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>32.99328538911055</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
@@ -22597,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22612,7 +22612,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>2.637990042895467</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -22704,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22716,10 +22716,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>61.44282809395945</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -22755,25 +22755,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>24.50405889453657</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>45.51969197470459</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22804,7 +22804,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,16 +22837,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>3.050611522026713</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22944,7 +22944,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>38.88235676895641</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -22956,7 +22956,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>96.78810843022231</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -23023,25 +23023,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>324.7585931720855</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>188.9746976505468</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23178,16 +23178,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -23226,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>28.4166734933402</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23241,13 +23241,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -23260,25 +23260,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D11" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>17.03518778052728</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>242.4850499617681</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.83779588133098</v>
+        <v>19.26974202066685</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23500,13 +23500,13 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -23515,7 +23515,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>218.1176306948412</v>
+        <v>203.1375441174957</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83.83779588133098</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>72.78996144619879</v>
       </c>
     </row>
     <row r="17">
@@ -23737,22 +23737,22 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D17" t="n">
-        <v>25.40974094207422</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>324.3459716929541</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -23794,10 +23794,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>145.5279207325258</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -23910,7 +23910,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>10.43555336698788</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D20" t="n">
         <v>7.254829457195569</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>49.86896399117649</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.724805441585318</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>145.5279207325258</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>114.219126279798</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24211,19 +24211,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>37.44381987074206</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>377.3194891395378</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -24274,7 +24274,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>153.9652030413741</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -24375,7 +24375,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
         <v>0.4126214791313976</v>
@@ -24496,7 +24496,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>80.35510693204151</v>
+        <v>11.98280877651734</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>35.83169084297771</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24651,22 +24651,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>103.5839175544172</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -24694,13 +24694,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>97.90755423157719</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>301.6180242079993</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.7757286248844</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -24906,7 +24906,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>59.53665345323626</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>90.23291897947951</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,13 +24970,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>298.2216617877332</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>222.1041216101272</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -25140,7 +25140,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>94.56119464472795</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>348.7042126639553</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
         <v>286.2388530112159</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>133.056608605703</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>39.76325367353087</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>15.83994225927069</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25405,7 +25405,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>331.4127999629868</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
@@ -25447,16 +25447,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>78.20576728694186</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>95.96740703621907</v>
+        <v>57.51411929954085</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>9.465190568306582</v>
+        <v>59.33415455948301</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E41" t="n">
-        <v>392.6088773376003</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>14.15924675562661</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -25800,7 +25800,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>27.16999238808958</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>50.28158547030785</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -25933,7 +25933,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>357.5213748288652</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>15.5587197492369</v>
+        <v>173.179595343672</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>361095.1315552105</v>
+        <v>361095.1315552104</v>
       </c>
     </row>
     <row r="4">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>361095.1315552105</v>
+        <v>361095.1315552104</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>361095.1315552105</v>
+        <v>361095.1315552104</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>361095.1315552106</v>
+        <v>361095.1315552104</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>361095.1315552104</v>
+        <v>361095.1315552105</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>361095.1315552105</v>
+        <v>361095.1315552104</v>
       </c>
     </row>
     <row r="14">
@@ -26316,10 +26316,10 @@
         <v>84141.63629345148</v>
       </c>
       <c r="C2" t="n">
-        <v>84141.63629345148</v>
+        <v>84141.63629345146</v>
       </c>
       <c r="D2" t="n">
-        <v>84141.63629345148</v>
+        <v>84141.63629345149</v>
       </c>
       <c r="E2" t="n">
         <v>84141.63629345148</v>
@@ -26331,28 +26331,28 @@
         <v>84141.63629345148</v>
       </c>
       <c r="H2" t="n">
+        <v>84141.63629345146</v>
+      </c>
+      <c r="I2" t="n">
+        <v>84141.63629345146</v>
+      </c>
+      <c r="J2" t="n">
+        <v>84141.63629345146</v>
+      </c>
+      <c r="K2" t="n">
+        <v>84141.63629345149</v>
+      </c>
+      <c r="L2" t="n">
+        <v>84141.63629345146</v>
+      </c>
+      <c r="M2" t="n">
         <v>84141.63629345148</v>
-      </c>
-      <c r="I2" t="n">
-        <v>84141.63629345148</v>
-      </c>
-      <c r="J2" t="n">
-        <v>84141.63629345148</v>
-      </c>
-      <c r="K2" t="n">
-        <v>84141.63629345148</v>
-      </c>
-      <c r="L2" t="n">
-        <v>84141.63629345149</v>
-      </c>
-      <c r="M2" t="n">
-        <v>84141.63629345149</v>
       </c>
       <c r="N2" t="n">
         <v>84141.63629345148</v>
       </c>
       <c r="O2" t="n">
-        <v>84141.63629345148</v>
+        <v>84141.63629345146</v>
       </c>
       <c r="P2" t="n">
         <v>84141.63629345148</v>
@@ -26438,7 +26438,7 @@
         <v>24896.51517712573</v>
       </c>
       <c r="I4" t="n">
-        <v>24896.51517712573</v>
+        <v>24896.51517712572</v>
       </c>
       <c r="J4" t="n">
         <v>24896.51517712573</v>
@@ -26453,7 +26453,7 @@
         <v>24896.51517712573</v>
       </c>
       <c r="N4" t="n">
-        <v>24896.51517712572</v>
+        <v>24896.51517712573</v>
       </c>
       <c r="O4" t="n">
         <v>24896.51517712573</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-142370.9676806065</v>
+        <v>-143110.3242925222</v>
       </c>
       <c r="C6" t="n">
-        <v>-179.6670208965879</v>
+        <v>-919.0236328122634</v>
       </c>
       <c r="D6" t="n">
-        <v>-179.6670208965952</v>
+        <v>-919.0236328122343</v>
       </c>
       <c r="E6" t="n">
-        <v>33447.93297910341</v>
+        <v>32708.57636718776</v>
       </c>
       <c r="F6" t="n">
-        <v>33447.9329791034</v>
+        <v>32708.57636718776</v>
       </c>
       <c r="G6" t="n">
-        <v>33447.9329791034</v>
+        <v>32708.57636718775</v>
       </c>
       <c r="H6" t="n">
-        <v>33447.93297910341</v>
+        <v>32708.57636718774</v>
       </c>
       <c r="I6" t="n">
-        <v>33447.9329791034</v>
+        <v>32708.57636718774</v>
       </c>
       <c r="J6" t="n">
-        <v>-77566.53236588679</v>
+        <v>-78305.88897780245</v>
       </c>
       <c r="K6" t="n">
-        <v>33447.9329791034</v>
+        <v>32708.57636718777</v>
       </c>
       <c r="L6" t="n">
-        <v>33447.93297910343</v>
+        <v>32708.57636718774</v>
       </c>
       <c r="M6" t="n">
-        <v>33447.93297910343</v>
+        <v>32708.57636718776</v>
       </c>
       <c r="N6" t="n">
-        <v>33447.93297910341</v>
+        <v>32708.57636718775</v>
       </c>
       <c r="O6" t="n">
-        <v>33447.93297910341</v>
+        <v>32708.57636718774</v>
       </c>
       <c r="P6" t="n">
-        <v>33447.93297910341</v>
+        <v>32708.57636718775</v>
       </c>
     </row>
   </sheetData>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>407.1525905495951</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,10 +35175,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,7 +35187,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35336,16 +35336,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -35415,7 +35415,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35427,7 +35427,7 @@
         <v>236.2898988798406</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q11" t="n">
         <v>424.2958575201044</v>
@@ -35506,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q12" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>409.401749030468</v>
+        <v>298.8178948332412</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512943</v>
@@ -35588,7 +35588,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,10 +35649,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35661,10 +35661,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q15" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L17" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35898,16 +35898,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>424.2958575201043</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P17" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="M19" t="n">
         <v>424.2958575201044</v>
@@ -36056,13 +36056,13 @@
         <v>424.2958575201044</v>
       </c>
       <c r="O19" t="n">
-        <v>409.0142240616578</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,11 +36120,11 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K20" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
@@ -36135,7 +36135,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>424.2958575201044</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O22" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,19 +36360,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>424.2958575201044</v>
@@ -36439,22 +36439,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -36518,22 +36518,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821539</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="K26" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L26" t="n">
+      <c r="P26" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M26" t="n">
+      <c r="Q26" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697544</v>
@@ -36679,22 +36679,22 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>358.9284720888814</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
+      <c r="Q27" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36758,16 +36758,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M28" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M30" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36995,16 +36995,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M31" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O32" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K32" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L32" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q32" t="n">
         <v>424.2958575201044</v>
@@ -37232,16 +37232,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>369.8475292559658</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -37308,7 +37308,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L35" t="n">
         <v>236.2898988798406</v>
@@ -37320,7 +37320,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37469,16 +37469,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>369.8475292559658</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -37554,13 +37554,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O38" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P38" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>424.2958575201044</v>
@@ -37624,10 +37624,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,10 +37636,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>424.2958575201044</v>
@@ -37709,13 +37709,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>371.7091627680287</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -37788,13 +37788,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>424.2958575201044</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>34.86753268700501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M43" t="n">
         <v>424.2958575201044</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>33.39342414375216</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O46" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
